--- a/XlsxToLua/bin/Debug/TestExcel/TestExportTimeTypeToMySQL.xlsx
+++ b/XlsxToLua/bin/Debug/TestExcel/TestExportTimeTypeToMySQL.xlsx
@@ -5,244 +5,253 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\表格导出工具 4.5\XlsxToLua\bin\Debug\TestExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\表格导出工具\XlsxToLua\bin\Debug\TestExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="110" windowWidth="28040" windowHeight="12330"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="28035" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="config" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="60">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id(INT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试导出date型为MySQL的datetime类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date(input=yyyy/MM/dd HH:mm:ss)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testExportDateToDatetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/7/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/07/01 0:0:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/7/1 10:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016/10/10 0:0:10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试导出date型为距1970年的秒数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1467331200</t>
+  </si>
+  <si>
+    <t>1467334801</t>
+  </si>
+  <si>
+    <t>1476057600</t>
+  </si>
+  <si>
+    <t>date(input=#1970sec)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testExportDateToReferenceSec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testExportDateToDatetime(DATETIME)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试导出date型为距1970年的毫秒数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testExportDateToReferenceMsec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testExportDateToReferenceSec(BIGINT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testExportDateToReferenceMsec(BIGINT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试导出无时分秒的date型为MySQL的date类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testExportDateToDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testExportDateToDate(DATE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1476094210</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试导出date型为MySQL的varchar类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testExportDateToVarchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date(toDatabase=yyyy年MM月dd日 HH时mm分ss秒)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testExportDateToVarchar(VARCHAR(30))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date(input=yyyy/MM/dd HH:mm:ss|toDatabase=#1970sec)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date(input=yyyy/MM/dd HH:mm:ss|toDatabase=#1970msec)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试导出time型为MySQL的time类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testExportTimeToTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time(input=#sec)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testExportTimeToTime(TIME)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1920</t>
+  </si>
+  <si>
+    <t>36600</t>
+  </si>
+  <si>
+    <t>10832</t>
+  </si>
+  <si>
+    <t>测试导出time型为距0点的秒数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testExportTimeToReferenceSec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testExportTimeToReferenceSec(INT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0时0分0秒</t>
+  </si>
+  <si>
+    <t>32分</t>
+  </si>
+  <si>
+    <t>10时10分</t>
+  </si>
+  <si>
+    <t>3时32秒</t>
+  </si>
+  <si>
+    <t>测试导出time型为MySQL的varchar类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testExportTimeToVarchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>testExportTimeToVarchar(VARCHAR(20))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:0:0</t>
+  </si>
+  <si>
+    <t>0:32</t>
+  </si>
+  <si>
+    <t>10:10</t>
+  </si>
+  <si>
+    <t>3:0:32</t>
+  </si>
+  <si>
+    <t>time(input=HH时mm分ss秒|toDatabase=#sec)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time(toDatabase=HH时mm分ss秒)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_export_time_type_to_mysql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该表格用于测试将时间型数据导出至MySQL数据库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>exportDatabaseTableName</t>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id(INT)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试导出date型为MySQL的datetime类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date(input=yyyy/MM/dd HH:mm:ss)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testExportDateToDatetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016/7/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016/07/01 0:0:0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016/7/1 10:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016/10/10 0:0:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试导出date型为距1970年的秒数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1467331200</t>
-  </si>
-  <si>
-    <t>1467334801</t>
-  </si>
-  <si>
-    <t>1476057600</t>
-  </si>
-  <si>
-    <t>date(input=#1970sec)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testExportDateToReferenceSec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testExportDateToDatetime(DATETIME)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试导出date型为距1970年的毫秒数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testExportDateToReferenceMsec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testExportDateToReferenceSec(BIGINT)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testExportDateToReferenceMsec(BIGINT)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试导出无时分秒的date型为MySQL的date类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testExportDateToDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testExportDateToDate(DATE)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1476094210</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试导出date型为MySQL的varchar类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testExportDateToVarchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date(toDatabase=yyyy年MM月dd日 HH时mm分ss秒)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testExportDateToVarchar(VARCHAR(30))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date(input=yyyy/MM/dd HH:mm:ss|toDatabase=#1970sec)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date(input=yyyy/MM/dd HH:mm:ss|toDatabase=#1970msec)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试导出time型为MySQL的time类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testExportTimeToTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time(input=#sec)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testExportTimeToTime(TIME)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1920</t>
-  </si>
-  <si>
-    <t>36600</t>
-  </si>
-  <si>
-    <t>10832</t>
-  </si>
-  <si>
-    <t>测试导出time型为距0点的秒数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testExportTimeToReferenceSec</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testExportTimeToReferenceSec(INT)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0时0分0秒</t>
-  </si>
-  <si>
-    <t>32分</t>
-  </si>
-  <si>
-    <t>10时10分</t>
-  </si>
-  <si>
-    <t>3时32秒</t>
-  </si>
-  <si>
-    <t>测试导出time型为MySQL的varchar类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testExportTimeToVarchar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>testExportTimeToVarchar(VARCHAR(20))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0:0:0</t>
-  </si>
-  <si>
-    <t>0:32</t>
-  </si>
-  <si>
-    <t>10:10</t>
-  </si>
-  <si>
-    <t>3:0:32</t>
-  </si>
-  <si>
-    <t>time(input=HH时mm分ss秒|toDatabase=#sec)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time(toDatabase=HH时mm分ss秒)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_export_time_type_to_mysql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exportDatabaseTableComment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -260,7 +269,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -276,6 +285,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,7 +324,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -321,6 +336,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -439,7 +457,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -735,251 +753,251 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.7265625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26.90625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="34.1796875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="34.7265625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="32.6328125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="29.26953125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="34.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="32.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="29.25" style="3" customWidth="1"/>
     <col min="7" max="7" width="32" style="3" customWidth="1"/>
     <col min="8" max="8" width="34" style="3" customWidth="1"/>
-    <col min="9" max="9" width="37.26953125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="37.25" style="3" customWidth="1"/>
     <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" ht="35.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>56</v>
+      <c r="H5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:9" s="2" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -994,25 +1012,32 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="32.81640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>58</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1029,7 +1054,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
